--- a/Tendencia de Matrícula primer año por región y género.xlsx
+++ b/Tendencia de Matrícula primer año por región y género.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isipi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isipi\Downloads\grupo2-2022-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38BBAC98-65D6-43B0-B234-3605A8029661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60953E07-9E0D-4A39-8A53-BB446BA9AACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Región de Arica y Parinacota</t>
   </si>
@@ -150,13 +152,32 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Mujeres tituladas</t>
+  </si>
+  <si>
+    <t>Mujeres matriculadas</t>
+  </si>
+  <si>
+    <t>Total matriculados</t>
+  </si>
+  <si>
+    <t>Total titulados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -189,6 +210,16 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,10 +261,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,17 +289,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -601,15 +649,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -619,31 +668,31 @@
       <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="10">
         <v>2017</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10">
         <v>2018</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10">
         <v>2019</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10">
         <v>2020</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10">
         <v>2021</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="8"/>
@@ -720,7 +769,7 @@
         <f>H3-F3</f>
         <v>418</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>557</v>
       </c>
       <c r="I3" s="6">
@@ -730,7 +779,7 @@
         <f>K3-I3</f>
         <v>433</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>565</v>
       </c>
       <c r="L3" s="6">
@@ -740,7 +789,7 @@
         <f>N3-L3</f>
         <v>437</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <v>559</v>
       </c>
       <c r="O3" s="6">
@@ -750,7 +799,7 @@
         <f>Q3-O3</f>
         <v>369</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <v>468</v>
       </c>
     </row>
@@ -778,7 +827,7 @@
         <f t="shared" ref="G4:G18" si="1">H4-F4</f>
         <v>546</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>704</v>
       </c>
       <c r="I4" s="6">
@@ -788,7 +837,7 @@
         <f t="shared" ref="J4:J17" si="2">K4-I4</f>
         <v>522</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>672</v>
       </c>
       <c r="L4" s="6">
@@ -798,7 +847,7 @@
         <f t="shared" ref="M4:M18" si="3">N4-L4</f>
         <v>489</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>637</v>
       </c>
       <c r="O4" s="6">
@@ -808,7 +857,7 @@
         <f t="shared" ref="P4:P18" si="4">Q4-O4</f>
         <v>476</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="9">
         <v>638</v>
       </c>
     </row>
@@ -836,7 +885,7 @@
         <f t="shared" si="1"/>
         <v>1273</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>1790</v>
       </c>
       <c r="I5" s="6">
@@ -846,7 +895,7 @@
         <f t="shared" si="2"/>
         <v>1328</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>1861</v>
       </c>
       <c r="L5" s="6">
@@ -856,7 +905,7 @@
         <f t="shared" si="3"/>
         <v>1187</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <v>1659</v>
       </c>
       <c r="O5" s="6">
@@ -866,7 +915,7 @@
         <f t="shared" si="4"/>
         <v>1081</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="9">
         <v>1518</v>
       </c>
     </row>
@@ -894,7 +943,7 @@
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>492</v>
       </c>
       <c r="I6" s="6">
@@ -904,7 +953,7 @@
         <f t="shared" si="2"/>
         <v>348</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>553</v>
       </c>
       <c r="L6" s="6">
@@ -914,7 +963,7 @@
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <v>352</v>
       </c>
       <c r="O6" s="6">
@@ -924,7 +973,7 @@
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="9">
         <v>228</v>
       </c>
     </row>
@@ -952,7 +1001,7 @@
         <f t="shared" si="1"/>
         <v>1203</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>1597</v>
       </c>
       <c r="I7" s="6">
@@ -962,7 +1011,7 @@
         <f t="shared" si="2"/>
         <v>1208</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>1623</v>
       </c>
       <c r="L7" s="6">
@@ -972,7 +1021,7 @@
         <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <v>1440</v>
       </c>
       <c r="O7" s="6">
@@ -982,7 +1031,7 @@
         <f t="shared" si="4"/>
         <v>1130</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="9">
         <v>1441</v>
       </c>
     </row>
@@ -1010,7 +1059,7 @@
         <f t="shared" si="1"/>
         <v>3741</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>5160</v>
       </c>
       <c r="I8" s="6">
@@ -1020,7 +1069,7 @@
         <f t="shared" si="2"/>
         <v>3795</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>5256</v>
       </c>
       <c r="L8" s="6">
@@ -1030,7 +1079,7 @@
         <f t="shared" si="3"/>
         <v>3620</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <v>5021</v>
       </c>
       <c r="O8" s="6">
@@ -1040,7 +1089,7 @@
         <f t="shared" si="4"/>
         <v>3559</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="9">
         <v>4938</v>
       </c>
     </row>
@@ -1068,7 +1117,7 @@
         <f t="shared" si="1"/>
         <v>12752</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>17680</v>
       </c>
       <c r="I9" s="6">
@@ -1078,7 +1127,7 @@
         <f t="shared" si="2"/>
         <v>13714</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>18950</v>
       </c>
       <c r="L9" s="6">
@@ -1088,7 +1137,7 @@
         <f t="shared" si="3"/>
         <v>13164</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="9">
         <v>18611</v>
       </c>
       <c r="O9" s="6">
@@ -1098,7 +1147,7 @@
         <f t="shared" si="4"/>
         <v>13672</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="9">
         <v>18816</v>
       </c>
     </row>
@@ -1126,7 +1175,7 @@
         <f t="shared" si="1"/>
         <v>542</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>663</v>
       </c>
       <c r="I10" s="6">
@@ -1136,7 +1185,7 @@
         <f t="shared" si="2"/>
         <v>478</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>574</v>
       </c>
       <c r="L10" s="6">
@@ -1146,7 +1195,7 @@
         <f t="shared" si="3"/>
         <v>501</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="9">
         <v>597</v>
       </c>
       <c r="O10" s="6">
@@ -1156,7 +1205,7 @@
         <f t="shared" si="4"/>
         <v>515</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="9">
         <v>615</v>
       </c>
     </row>
@@ -1184,7 +1233,7 @@
         <f t="shared" si="1"/>
         <v>1349</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>1799</v>
       </c>
       <c r="I11" s="6">
@@ -1194,7 +1243,7 @@
         <f t="shared" si="2"/>
         <v>1337</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>1700</v>
       </c>
       <c r="L11" s="6">
@@ -1204,7 +1253,7 @@
         <f t="shared" si="3"/>
         <v>1187</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="9">
         <v>1516</v>
       </c>
       <c r="O11" s="6">
@@ -1214,7 +1263,7 @@
         <f t="shared" si="4"/>
         <v>1242</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="9">
         <v>1576</v>
       </c>
     </row>
@@ -1242,7 +1291,7 @@
         <f t="shared" si="1"/>
         <v>3636</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>4900</v>
       </c>
       <c r="I12" s="6">
@@ -1252,7 +1301,7 @@
         <f t="shared" si="2"/>
         <v>3509</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>4799</v>
       </c>
       <c r="L12" s="6">
@@ -1262,7 +1311,7 @@
         <f t="shared" si="3"/>
         <v>3474</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="9">
         <v>4673</v>
       </c>
       <c r="O12" s="6">
@@ -1272,7 +1321,7 @@
         <f t="shared" si="4"/>
         <v>3471</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="9">
         <v>4602</v>
       </c>
     </row>
@@ -1300,7 +1349,7 @@
         <f t="shared" si="1"/>
         <v>452</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>584</v>
       </c>
       <c r="I13" s="6">
@@ -1310,7 +1359,7 @@
         <f t="shared" si="2"/>
         <v>467</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <v>614</v>
       </c>
       <c r="L13" s="6">
@@ -1320,7 +1369,7 @@
         <f t="shared" si="3"/>
         <v>536</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="9">
         <v>651</v>
       </c>
       <c r="O13" s="6">
@@ -1330,7 +1379,7 @@
         <f t="shared" si="4"/>
         <v>567</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="9">
         <v>694</v>
       </c>
     </row>
@@ -1358,7 +1407,7 @@
         <f t="shared" si="1"/>
         <v>1435</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>2133</v>
       </c>
       <c r="I14" s="6">
@@ -1368,7 +1417,7 @@
         <f t="shared" si="2"/>
         <v>1354</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>2042</v>
       </c>
       <c r="L14" s="6">
@@ -1378,7 +1427,7 @@
         <f t="shared" si="3"/>
         <v>1326</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="9">
         <v>1980</v>
       </c>
       <c r="O14" s="6">
@@ -1388,7 +1437,7 @@
         <f t="shared" si="4"/>
         <v>1245</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="9">
         <v>1797</v>
       </c>
     </row>
@@ -1416,7 +1465,7 @@
         <f t="shared" si="1"/>
         <v>835</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>1189</v>
       </c>
       <c r="I15" s="6">
@@ -1426,7 +1475,7 @@
         <f t="shared" si="2"/>
         <v>847</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="9">
         <v>1174</v>
       </c>
       <c r="L15" s="6">
@@ -1436,7 +1485,7 @@
         <f t="shared" si="3"/>
         <v>820</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <v>1104</v>
       </c>
       <c r="O15" s="6">
@@ -1446,7 +1495,7 @@
         <f t="shared" si="4"/>
         <v>728</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="9">
         <v>995</v>
       </c>
     </row>
@@ -1474,7 +1523,7 @@
         <f t="shared" si="1"/>
         <v>444</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>562</v>
       </c>
       <c r="I16" s="6">
@@ -1484,7 +1533,7 @@
         <f t="shared" si="2"/>
         <v>501</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <v>629</v>
       </c>
       <c r="L16" s="6">
@@ -1494,7 +1543,7 @@
         <f t="shared" si="3"/>
         <v>607</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="9">
         <v>723</v>
       </c>
       <c r="O16" s="6">
@@ -1504,7 +1553,7 @@
         <f t="shared" si="4"/>
         <v>560</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="9">
         <v>688</v>
       </c>
     </row>
@@ -1532,7 +1581,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>69</v>
       </c>
       <c r="I17" s="6">
@@ -1542,7 +1591,7 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="9">
         <v>88</v>
       </c>
       <c r="L17" s="6">
@@ -1552,7 +1601,7 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="9">
         <v>79</v>
       </c>
       <c r="O17" s="6">
@@ -1562,7 +1611,7 @@
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="9">
         <v>93</v>
       </c>
     </row>
@@ -1590,7 +1639,7 @@
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>164</v>
       </c>
       <c r="I18" s="6">
@@ -1600,7 +1649,7 @@
         <f>K18-I18</f>
         <v>101</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>122</v>
       </c>
       <c r="L18" s="6">
@@ -1610,7 +1659,7 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="9">
         <v>137</v>
       </c>
       <c r="O18" s="6">
@@ -1620,8 +1669,70 @@
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="9">
         <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="C19">
+        <f t="shared" ref="C19:D19" si="6">SUM(C3:C18)</f>
+        <v>10484</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
+        <v>28690</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E3:E18)</f>
+        <v>39174</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:Q19" si="7">SUM(F3:F18)</f>
+        <v>10888</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>29155</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>40043</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>11223</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>29999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>41222</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>10888</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>28851</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>39739</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>10299</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>28942</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>39241</v>
       </c>
     </row>
   </sheetData>
@@ -1643,6 +1754,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E257D3A6-827C-4419-8FC3-29C3A9A98E17}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2">
+        <v>10484</v>
+      </c>
+      <c r="C2">
+        <v>39174</v>
+      </c>
+      <c r="D2" s="14">
+        <v>3241</v>
+      </c>
+      <c r="E2" s="14">
+        <v>14525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>10888</v>
+      </c>
+      <c r="C3">
+        <v>40043</v>
+      </c>
+      <c r="D3" s="14">
+        <v>3278</v>
+      </c>
+      <c r="E3" s="14">
+        <v>15074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>11223</v>
+      </c>
+      <c r="C4">
+        <v>41222</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3022</v>
+      </c>
+      <c r="E4" s="14">
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5">
+        <v>10888</v>
+      </c>
+      <c r="C5">
+        <v>39739</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2795</v>
+      </c>
+      <c r="E5" s="16">
+        <v>12900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53BCF7E-D1A3-4684-8FCC-30C20354F6FD}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="7" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="12"/>
+      <c r="C2">
+        <v>10484</v>
+      </c>
+      <c r="E2">
+        <v>2017</v>
+      </c>
+      <c r="F2">
+        <v>10484</v>
+      </c>
+      <c r="G2">
+        <v>39174</v>
+      </c>
+      <c r="H2" s="14">
+        <v>3241</v>
+      </c>
+      <c r="I2" s="14">
+        <v>14525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="12"/>
+      <c r="C3">
+        <v>28690</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3">
+        <v>10888</v>
+      </c>
+      <c r="G3">
+        <v>40043</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3278</v>
+      </c>
+      <c r="I3" s="14">
+        <v>15074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="12"/>
+      <c r="C4">
+        <v>39174</v>
+      </c>
+      <c r="E4">
+        <v>2019</v>
+      </c>
+      <c r="F4">
+        <v>11223</v>
+      </c>
+      <c r="G4">
+        <v>41222</v>
+      </c>
+      <c r="H4" s="14">
+        <v>3022</v>
+      </c>
+      <c r="I4" s="14">
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12"/>
+      <c r="C5">
+        <v>10888</v>
+      </c>
+      <c r="E5">
+        <v>2020</v>
+      </c>
+      <c r="F5">
+        <v>10888</v>
+      </c>
+      <c r="G5">
+        <v>39739</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2795</v>
+      </c>
+      <c r="I5" s="16">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="12"/>
+      <c r="C6">
+        <v>29155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12"/>
+      <c r="C7">
+        <v>40043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8">
+        <v>11223</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="14">
+        <v>14525</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9">
+        <v>29999</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2018</v>
+      </c>
+      <c r="F9" s="14">
+        <v>15074</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10">
+        <v>41222</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2019</v>
+      </c>
+      <c r="F10" s="14">
+        <v>14250</v>
+      </c>
+      <c r="G10" s="14">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11">
+        <v>10888</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="16">
+        <v>12900</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12">
+        <v>28851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13">
+        <v>39739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14">
+        <v>10299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15">
+        <v>28942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16">
+        <v>39241</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6D1F0C-06B4-4593-9021-79C063B7F940}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -1656,15 +2089,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
